--- a/results/mixteam.xlsx
+++ b/results/mixteam.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9BB330-E27F-40BA-9A19-DF6F1143BF63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46467129-1EBF-4EF9-A6CD-9019EF0DA652}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="630" windowWidth="23535" windowHeight="14850" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="2355" yWindow="960" windowWidth="23535" windowHeight="14850" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MixTeam" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="1"/>
@@ -50,6 +50,33 @@
   </si>
   <si>
     <t>Name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川ｼｭｰﾃｨﾝｸﾞｸﾗﾌﾞ</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中一郎</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中花子</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハナコ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -414,13 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D62887-572F-49AC-8CE1-113E14992275}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -437,6 +467,108 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/results/mixteam.xlsx
+++ b/results/mixteam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46467129-1EBF-4EF9-A6CD-9019EF0DA652}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B097B4-66A8-45D8-9D8E-D108165D2281}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="960" windowWidth="23535" windowHeight="14850" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="1530" yWindow="1290" windowWidth="18255" windowHeight="12435" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="MixTeam" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="1"/>
@@ -53,29 +53,113 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>神奈川ｼｭｰﾃｨﾝｸﾞｸﾗﾌﾞ</t>
+    <t>神奈川シューティングクラブ</t>
     <rPh sb="0" eb="3">
       <t>カナガワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>田中一郎</t>
+    <t>ITALY-A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITALY-B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星B</t>
     <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中花子</t>
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星A</t>
     <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハナコ</t>
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一ノ渡　桜</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワタリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nordelli Elania</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gambaro Barbara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大嶋美和子</t>
+    <rPh sb="0" eb="2">
+      <t>オオシマ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミワコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小沢　綾香</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アヤカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　直也</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chatziplis Alexandros</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weithaler Simon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青山　拓史</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長田　好生</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨシオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -84,6 +168,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,8 +210,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D62887-572F-49AC-8CE1-113E14992275}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -473,102 +563,85 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1000</v>
+      <c r="B2" s="1">
+        <v>496</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1000</v>
+      <c r="B3" s="1">
+        <v>493.3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1000</v>
+      <c r="B4" s="1">
+        <v>430.6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1000</v>
+      <c r="B5" s="1">
+        <v>379.1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1000</v>
+      <c r="B6" s="1">
+        <v>338.9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
